--- a/CP_350mW_hand.xlsx
+++ b/CP_350mW_hand.xlsx
@@ -16,6 +16,8 @@
     <sheet name="measured" sheetId="1" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" r:id="rId2"/>
     <sheet name="rho_mat" sheetId="3" r:id="rId7"/>
+    <sheet name="rho_min" sheetId="4" r:id="rId8"/>
+    <sheet name="rho_max" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="11">
   <si>
     <t>QWP</t>
   </si>
@@ -91,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -103,17 +105,429 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,22 +1637,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="206" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1247,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00089676640765957278</v>
+        <v>0.00089676640765957321</v>
       </c>
       <c r="C2">
         <v>0.99910323359234043</v>
@@ -1407,7 +1821,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.069710648492593105</v>
+        <v>0.069710648492593119</v>
       </c>
       <c r="C10">
         <v>0.93028935150740688</v>
@@ -1496,7 +1910,7 @@
         <v>-0.21428490555713392</v>
       </c>
       <c r="E14">
-        <v>-0.4381851594400531</v>
+        <v>-0.43818515944005315</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1607,7 +2021,7 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0009760579225674827</v>
+        <v>0.00097605792256748281</v>
       </c>
       <c r="C20">
         <v>0.99902394207743261</v>
@@ -1617,6 +2031,840 @@
       </c>
       <c r="E20">
         <v>0.025348797149765491</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.10055250245515439</v>
+      </c>
+      <c r="C2">
+        <v>0.89944749754484565</v>
+      </c>
+      <c r="D2">
+        <v>0.023353839710999882</v>
+      </c>
+      <c r="E2">
+        <v>0.0053373770602767427</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.1559192773955361</v>
+      </c>
+      <c r="C3">
+        <v>0.84408072260446387</v>
+      </c>
+      <c r="D3">
+        <v>-0.10699406890360466</v>
+      </c>
+      <c r="E3">
+        <v>0.10220003730303585</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.2735754277059631</v>
+      </c>
+      <c r="C4">
+        <v>0.7264245722940369</v>
+      </c>
+      <c r="D4">
+        <v>-0.17834959201549255</v>
+      </c>
+      <c r="E4">
+        <v>0.18779289171306376</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.40142207458831386</v>
+      </c>
+      <c r="C5">
+        <v>0.5985779254116862</v>
+      </c>
+      <c r="D5">
+        <v>-0.16569481079836607</v>
+      </c>
+      <c r="E5">
+        <v>0.24959091753171597</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.4834446996486792</v>
+      </c>
+      <c r="C6">
+        <v>0.5165553003513208</v>
+      </c>
+      <c r="D6">
+        <v>-0.076568264124858509</v>
+      </c>
+      <c r="E6">
+        <v>0.28144010597245295</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.48667792961862416</v>
+      </c>
+      <c r="C7">
+        <v>0.51332207038137589</v>
+      </c>
+      <c r="D7">
+        <v>0.066610351906879209</v>
+      </c>
+      <c r="E7">
+        <v>0.33305175953439609</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.38597850347824497</v>
+      </c>
+      <c r="C8">
+        <v>0.61402149652175497</v>
+      </c>
+      <c r="D8">
+        <v>0.18556439630011118</v>
+      </c>
+      <c r="E8">
+        <v>0.3107644709122343</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.24981945054520538</v>
+      </c>
+      <c r="C9">
+        <v>0.75018054945479462</v>
+      </c>
+      <c r="D9">
+        <v>0.22657861082698363</v>
+      </c>
+      <c r="E9">
+        <v>0.26906210035704298</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.13203487930201691</v>
+      </c>
+      <c r="C10">
+        <v>0.86796512069798315</v>
+      </c>
+      <c r="D10">
+        <v>0.14439137647642364</v>
+      </c>
+      <c r="E10">
+        <v>0.16302252182822025</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.10152719280915633</v>
+      </c>
+      <c r="C11">
+        <v>0.89847280719084366</v>
+      </c>
+      <c r="D11">
+        <v>0.013109242685408126</v>
+      </c>
+      <c r="E11">
+        <v>0.013109242685408126</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.16075635431549642</v>
+      </c>
+      <c r="C12">
+        <v>0.8392436456845036</v>
+      </c>
+      <c r="D12">
+        <v>-0.1263848876079523</v>
+      </c>
+      <c r="E12">
+        <v>-0.13081944506788046</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.28379312530290224</v>
+      </c>
+      <c r="C13">
+        <v>0.71620687469709776</v>
+      </c>
+      <c r="D13">
+        <v>-0.2001585293587565</v>
+      </c>
+      <c r="E13">
+        <v>-0.2630145486005932</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.40961838782472187</v>
+      </c>
+      <c r="C14">
+        <v>0.59038161217527807</v>
+      </c>
+      <c r="D14">
+        <v>-0.17624414374179231</v>
+      </c>
+      <c r="E14">
+        <v>-0.36039667854892138</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.49200595098335637</v>
+      </c>
+      <c r="C15">
+        <v>0.50799404901664358</v>
+      </c>
+      <c r="D15">
+        <v>-0.074230455154548056</v>
+      </c>
+      <c r="E15">
+        <v>-0.39730423612718868</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.4965708824293259</v>
+      </c>
+      <c r="C16">
+        <v>0.50342911757067421</v>
+      </c>
+      <c r="D16">
+        <v>0.069725390603707499</v>
+      </c>
+      <c r="E16">
+        <v>-0.37731723669317796</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.40031923366363786</v>
+      </c>
+      <c r="C17">
+        <v>0.59968076633636214</v>
+      </c>
+      <c r="D17">
+        <v>0.20991596675539789</v>
+      </c>
+      <c r="E17">
+        <v>-0.31076944798983486</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.25574808750297923</v>
+      </c>
+      <c r="C18">
+        <v>0.74425191249702072</v>
+      </c>
+      <c r="D18">
+        <v>0.22564224297343824</v>
+      </c>
+      <c r="E18">
+        <v>-0.20214753519991535</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.13965122472019703</v>
+      </c>
+      <c r="C19">
+        <v>0.86034877527980291</v>
+      </c>
+      <c r="D19">
+        <v>0.14070761701401827</v>
+      </c>
+      <c r="E19">
+        <v>-0.085797327447572125</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.10079131131269935</v>
+      </c>
+      <c r="C20">
+        <v>0.89920868868730064</v>
+      </c>
+      <c r="D20">
+        <v>0.01338886645025006</v>
+      </c>
+      <c r="E20">
+        <v>0.020278506133054531</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00089676671932227634</v>
+      </c>
+      <c r="C2">
+        <v>0.99910323328067763</v>
+      </c>
+      <c r="D2">
+        <v>0.029180247669395223</v>
+      </c>
+      <c r="E2">
+        <v>0.0066689669215493517</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.040668651726818467</v>
+      </c>
+      <c r="C3">
+        <v>0.95933134827318156</v>
+      </c>
+      <c r="D3">
+        <v>-0.14283197720211027</v>
+      </c>
+      <c r="E3">
+        <v>0.13643217374295261</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.17090402002223282</v>
+      </c>
+      <c r="C4">
+        <v>0.82909597997776718</v>
+      </c>
+      <c r="D4">
+        <v>-0.25922157285452557</v>
+      </c>
+      <c r="E4">
+        <v>0.27294690282516232</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.34371835462297967</v>
+      </c>
+      <c r="C5">
+        <v>0.65628164537702027</v>
+      </c>
+      <c r="D5">
+        <v>-0.26268616988903415</v>
+      </c>
+      <c r="E5">
+        <v>0.39569182552905152</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.47211085581160628</v>
+      </c>
+      <c r="C6">
+        <v>0.52788914418839372</v>
+      </c>
+      <c r="D6">
+        <v>-0.12898729187132085</v>
+      </c>
+      <c r="E6">
+        <v>0.47411545120269294</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.48040345500928355</v>
+      </c>
+      <c r="C7">
+        <v>0.51959654499071639</v>
+      </c>
+      <c r="D7">
+        <v>0.097982724953581984</v>
+      </c>
+      <c r="E7">
+        <v>0.48991362476790989</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.34976849650837288</v>
+      </c>
+      <c r="C8">
+        <v>0.65023150349162706</v>
+      </c>
+      <c r="D8">
+        <v>0.24449440764323638</v>
+      </c>
+      <c r="E8">
+        <v>0.40945448990855238</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.21020506467540459</v>
+      </c>
+      <c r="C9">
+        <v>0.78979493532459544</v>
+      </c>
+      <c r="D9">
+        <v>0.2624557904826525</v>
+      </c>
+      <c r="E9">
+        <v>0.31166625119814978</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.069710649334816785</v>
+      </c>
+      <c r="C10">
+        <v>0.93028935066518326</v>
+      </c>
+      <c r="D10">
+        <v>0.16884771988127442</v>
+      </c>
+      <c r="E10">
+        <v>0.19063452244660017</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.00054028624821663904</v>
+      </c>
+      <c r="C11">
+        <v>0.99945971375178344</v>
+      </c>
+      <c r="D11">
+        <v>0.016431581982508384</v>
+      </c>
+      <c r="E11">
+        <v>0.016431581982508388</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.059346711704718863</v>
+      </c>
+      <c r="C12">
+        <v>0.94065328829528116</v>
+      </c>
+      <c r="D12">
+        <v>-0.16416495054137922</v>
+      </c>
+      <c r="E12">
+        <v>-0.1699251242445855</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.22628576457470415</v>
+      </c>
+      <c r="C13">
+        <v>0.77371423542529583</v>
+      </c>
+      <c r="D13">
+        <v>-0.25339730248651104</v>
+      </c>
+      <c r="E13">
+        <v>-0.33297195649675171</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.39011030493754445</v>
+      </c>
+      <c r="C14">
+        <v>0.60988969506245561</v>
+      </c>
+      <c r="D14">
+        <v>-0.2142849053717884</v>
+      </c>
+      <c r="E14">
+        <v>-0.4381851590615416</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.49011269493389203</v>
+      </c>
+      <c r="C15">
+        <v>0.50988730506610802</v>
+      </c>
+      <c r="D15">
+        <v>-0.09181068989957393</v>
+      </c>
+      <c r="E15">
+        <v>-0.49139906178556575</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.49553175489295392</v>
+      </c>
+      <c r="C16">
+        <v>0.50446824510704602</v>
+      </c>
+      <c r="D16">
+        <v>0.090854317176603958</v>
+      </c>
+      <c r="E16">
+        <v>-0.49165590327863884</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.3715601710901893</v>
+      </c>
+      <c r="C17">
+        <v>0.62843982890981065</v>
+      </c>
+      <c r="D17">
+        <v>0.27047916911595432</v>
+      </c>
+      <c r="E17">
+        <v>-0.40043005483646854</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.18617183744907592</v>
+      </c>
+      <c r="C18">
+        <v>0.81382816255092405</v>
+      </c>
+      <c r="D18">
+        <v>0.28991744540418707</v>
+      </c>
+      <c r="E18">
+        <v>-0.25973016500643148</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.045296875283623209</v>
+      </c>
+      <c r="C19">
+        <v>0.95470312471637686</v>
+      </c>
+      <c r="D19">
+        <v>0.17755074393687093</v>
+      </c>
+      <c r="E19">
+        <v>-0.10826264874199448</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.00092372004511617582</v>
+      </c>
+      <c r="C20">
+        <v>0.99907627995488379</v>
+      </c>
+      <c r="D20">
+        <v>0.01673827712211344</v>
+      </c>
+      <c r="E20">
+        <v>0.025351455744127196</v>
       </c>
       <c r="F20">
         <v>1</v>

--- a/CP_350mW_hand.xlsx
+++ b/CP_350mW_hand.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="11">
   <si>
     <t>QWP</t>
   </si>
@@ -93,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="211">
+  <borders count="217">
     <border>
       <left/>
       <right/>
@@ -311,11 +311,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
@@ -528,6 +534,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,26 +1645,26 @@
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="206" t="s">
+      <c r="F1" s="212" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1661,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00089676640765957321</v>
+        <v>0.00089676746613793048</v>
       </c>
       <c r="C2">
-        <v>0.99910323359234043</v>
+        <v>0.9991032332911125</v>
       </c>
       <c r="D2">
-        <v>0.029180247687598415</v>
+        <v>0.029180247647873078</v>
       </c>
       <c r="E2">
-        <v>0.0066689669257095673</v>
+        <v>0.006668966916636071</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.000000001514501</v>
       </c>
     </row>
     <row r="3">
@@ -1681,19 +1693,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.064053009378716275</v>
+        <v>0.064053010090398127</v>
       </c>
       <c r="C3">
-        <v>0.93594699062128373</v>
+        <v>0.93594698990665282</v>
       </c>
       <c r="D3">
-        <v>-0.13556046383473735</v>
+        <v>-0.1355604636129763</v>
       </c>
       <c r="E3">
-        <v>0.12948647156515647</v>
+        <v>0.12948647135333177</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.99999999999410183</v>
       </c>
     </row>
     <row r="4">
@@ -1701,19 +1713,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.20775623268698062</v>
+        <v>0.20775623271745675</v>
       </c>
       <c r="C4">
-        <v>0.79224376731301938</v>
+        <v>0.79224376728239343</v>
       </c>
       <c r="D4">
-        <v>-0.23019390581717447</v>
+        <v>-0.23019390579310925</v>
       </c>
       <c r="E4">
-        <v>0.24238227146814401</v>
+        <v>0.24238227144280494</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99999999999970024</v>
       </c>
     </row>
     <row r="5">
@@ -1721,19 +1733,19 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.37016574585635798</v>
+        <v>0.37016574595850915</v>
       </c>
       <c r="C5">
-        <v>0.62983425414364191</v>
+        <v>0.62983425404113169</v>
       </c>
       <c r="D5">
-        <v>-0.21823204419888764</v>
+        <v>-0.21823204402688434</v>
       </c>
       <c r="E5">
-        <v>0.32872928176794469</v>
+        <v>0.32872928150885217</v>
       </c>
       <c r="F5">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999928169</v>
       </c>
     </row>
     <row r="6">
@@ -1741,19 +1753,19 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.47777777777777886</v>
+        <v>0.47777777780430741</v>
       </c>
       <c r="C6">
-        <v>0.52222222222222126</v>
+        <v>0.52222222219535297</v>
       </c>
       <c r="D6">
-        <v>-0.10277777777777293</v>
+        <v>-0.10277777765429194</v>
       </c>
       <c r="E6">
-        <v>0.37777777777776</v>
+        <v>0.37777777732388518</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99999999999932077</v>
       </c>
     </row>
     <row r="7">
@@ -1761,19 +1773,19 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.48275862068965519</v>
+        <v>0.48275862069258257</v>
       </c>
       <c r="C7">
-        <v>0.51724137931034486</v>
+        <v>0.51724137930723479</v>
       </c>
       <c r="D7">
-        <v>0.08620689655172413</v>
+        <v>0.086206896536625305</v>
       </c>
       <c r="E7">
-        <v>0.43103448275862061</v>
+        <v>0.4310344826831275</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99999999999963474</v>
       </c>
     </row>
     <row r="8">
@@ -1781,19 +1793,19 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.35593220338908582</v>
+        <v>0.3559322038479934</v>
       </c>
       <c r="C8">
-        <v>0.64406779661091407</v>
+        <v>0.64406779614803789</v>
       </c>
       <c r="D8">
-        <v>0.23446327683737009</v>
+        <v>0.23446327608729009</v>
       </c>
       <c r="E8">
-        <v>0.39265536723366801</v>
+        <v>0.39265536597751005</v>
       </c>
       <c r="F8">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999206257</v>
       </c>
     </row>
     <row r="9">
@@ -1801,19 +1813,19 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.21020506391716542</v>
+        <v>0.21020506431408267</v>
       </c>
       <c r="C9">
-        <v>0.78979493608283458</v>
+        <v>0.78979493568901993</v>
       </c>
       <c r="D9">
-        <v>0.26245579117004009</v>
+        <v>0.26245579081027692</v>
       </c>
       <c r="E9">
-        <v>0.31166625201309001</v>
+        <v>0.31166625158680161</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>1.0000000000062053</v>
       </c>
     </row>
     <row r="10">
@@ -1821,19 +1833,19 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.069710648492593119</v>
+        <v>0.069710649103733979</v>
       </c>
       <c r="C10">
-        <v>0.93028935150740688</v>
+        <v>0.93028935090011067</v>
       </c>
       <c r="D10">
-        <v>0.16884772021493805</v>
+        <v>0.16884771997272219</v>
       </c>
       <c r="E10">
-        <v>0.19063452282313978</v>
+        <v>0.19063452254978142</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>1.0000000000076894</v>
       </c>
     </row>
     <row r="11">
@@ -1841,19 +1853,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.0016352526022657343</v>
+        <v>0.0016352526829599779</v>
       </c>
       <c r="C11">
-        <v>0.99836474739773429</v>
+        <v>0.99836474730416547</v>
       </c>
       <c r="D11">
-        <v>0.016395558998233046</v>
+        <v>0.016395558995367081</v>
       </c>
       <c r="E11">
-        <v>0.016395558998233046</v>
+        <v>0.016395558995367088</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99999999997425082</v>
       </c>
     </row>
     <row r="12">
@@ -1861,19 +1873,19 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.072625698328342952</v>
+        <v>0.07262569956860622</v>
       </c>
       <c r="C12">
-        <v>0.92737430167165713</v>
+        <v>0.92737430042470836</v>
       </c>
       <c r="D12">
-        <v>-0.15921787709336244</v>
+        <v>-0.15921787663027978</v>
       </c>
       <c r="E12">
-        <v>-0.1648044692720769</v>
+        <v>-0.16480446879274555</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.99999999998662914</v>
       </c>
     </row>
     <row r="13">
@@ -1881,19 +1893,19 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.22905027940494974</v>
+        <v>0.22905027926744526</v>
       </c>
       <c r="C13">
-        <v>0.77094972059505018</v>
+        <v>0.77094972066972245</v>
       </c>
       <c r="D13">
-        <v>-0.25083798875706714</v>
+        <v>-0.25083798885527081</v>
       </c>
       <c r="E13">
-        <v>-0.32960893845583433</v>
+        <v>-0.32960893858487306</v>
       </c>
       <c r="F13">
-        <v>0.99999999999999978</v>
+        <v>0.99999999987433541</v>
       </c>
     </row>
     <row r="14">
@@ -1901,19 +1913,19 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.39011030484247233</v>
+        <v>0.39011030501144028</v>
       </c>
       <c r="C14">
-        <v>0.60988969515752767</v>
+        <v>0.60988969499900159</v>
       </c>
       <c r="D14">
-        <v>-0.21428490555713392</v>
+        <v>-0.21428490523717655</v>
       </c>
       <c r="E14">
-        <v>-0.43818515944005315</v>
+        <v>-0.4381851587842564</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.0000000000208837</v>
       </c>
     </row>
     <row r="15">
@@ -1921,19 +1933,19 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.49011269492981852</v>
+        <v>0.49011269495242271</v>
       </c>
       <c r="C15">
-        <v>0.50988730507018154</v>
+        <v>0.5098873050667071</v>
       </c>
       <c r="D15">
-        <v>-0.091810689937404211</v>
+        <v>-0.091810689816307883</v>
       </c>
       <c r="E15">
-        <v>-0.49139906198798161</v>
+        <v>-0.49139906133760147</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.0000000000382596</v>
       </c>
     </row>
     <row r="16">
@@ -1941,19 +1953,19 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.49567723342940651</v>
+        <v>0.49567723344872161</v>
       </c>
       <c r="C16">
-        <v>0.50432276657059338</v>
+        <v>0.50432276654469765</v>
       </c>
       <c r="D16">
-        <v>0.087896253602066793</v>
+        <v>0.087896253142422109</v>
       </c>
       <c r="E16">
-        <v>-0.47564841498429922</v>
+        <v>-0.47564841249695022</v>
       </c>
       <c r="F16">
-        <v>0.99999999999999978</v>
+        <v>0.99999999998683853</v>
       </c>
     </row>
     <row r="17">
@@ -1961,19 +1973,19 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.37463126844133954</v>
+        <v>0.37463126889993337</v>
       </c>
       <c r="C17">
-        <v>0.62536873155866057</v>
+        <v>0.62536873105965252</v>
       </c>
       <c r="D17">
-        <v>0.26401179940000269</v>
+        <v>0.26401179839170102</v>
       </c>
       <c r="E17">
-        <v>-0.39085545721229448</v>
+        <v>-0.39085545571955294</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99999999991917177</v>
       </c>
     </row>
     <row r="18">
@@ -1981,19 +1993,19 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.1929824562094371</v>
+        <v>0.19298245739718572</v>
       </c>
       <c r="C18">
-        <v>0.8070175437905629</v>
+        <v>0.80701754258444502</v>
       </c>
       <c r="D18">
-        <v>0.28362573093032956</v>
+        <v>0.28362572982458439</v>
       </c>
       <c r="E18">
-        <v>-0.25409356719428489</v>
+        <v>-0.25409356620367607</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99999999996326139</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2013,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.048710601798692243</v>
+        <v>0.048710603051189821</v>
       </c>
       <c r="C19">
-        <v>0.95128939820130776</v>
+        <v>0.95128939690227554</v>
       </c>
       <c r="D19">
-        <v>0.17621776501193923</v>
+        <v>0.17621776451379795</v>
       </c>
       <c r="E19">
-        <v>-0.10744985671459709</v>
+        <v>-0.1074498564108515</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99999999990693067</v>
       </c>
     </row>
     <row r="20">
@@ -2021,19 +2033,19 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.00097605792256748281</v>
+        <v>0.00097605782236846836</v>
       </c>
       <c r="C20">
-        <v>0.99902394207743261</v>
+        <v>0.99902394215793811</v>
       </c>
       <c r="D20">
-        <v>0.016736521787444274</v>
+        <v>0.016736521790466842</v>
       </c>
       <c r="E20">
-        <v>0.025348797149765491</v>
+        <v>0.025348797154331325</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99999999996061306</v>
       </c>
     </row>
   </sheetData>
@@ -2046,30 +2058,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="208" t="s">
+      <c r="D1" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="208" t="s">
+      <c r="E1" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="208" t="s">
+      <c r="F1" s="214" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2078,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.10055250245515439</v>
+        <v>0.07131571096666689</v>
       </c>
       <c r="C2">
-        <v>0.89944749754484565</v>
+        <v>0.92868428903333311</v>
       </c>
       <c r="D2">
-        <v>0.023353839710999882</v>
+        <v>0.025063179101740236</v>
       </c>
       <c r="E2">
-        <v>0.0053373770602767427</v>
+        <v>0.0057280361110052516</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2098,16 +2110,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1559192773955361</v>
+        <v>0.12901226850986847</v>
       </c>
       <c r="C3">
-        <v>0.84408072260446387</v>
+        <v>0.87098773149013153</v>
       </c>
       <c r="D3">
-        <v>-0.10699406890360466</v>
+        <v>-0.1153609728699523</v>
       </c>
       <c r="E3">
-        <v>0.10220003730303585</v>
+        <v>0.11019204944197074</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2118,16 +2130,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.2735754277059631</v>
+        <v>0.25429743006534372</v>
       </c>
       <c r="C4">
-        <v>0.7264245722940369</v>
+        <v>0.74570256993465633</v>
       </c>
       <c r="D4">
-        <v>-0.17834959201549255</v>
+        <v>-0.19353444134189526</v>
       </c>
       <c r="E4">
-        <v>0.18779289171306376</v>
+        <v>0.20378175231547335</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2138,16 +2150,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.40142207458831386</v>
+        <v>0.39226730709828578</v>
       </c>
       <c r="C5">
-        <v>0.5985779254116862</v>
+        <v>0.60773269290171428</v>
       </c>
       <c r="D5">
-        <v>-0.16569481079836607</v>
+        <v>-0.18108261147309421</v>
       </c>
       <c r="E5">
-        <v>0.24959091753171597</v>
+        <v>0.27277000968731913</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2158,16 +2170,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.4834446996486792</v>
+        <v>0.48178489656103679</v>
       </c>
       <c r="C6">
-        <v>0.5165553003513208</v>
+        <v>0.51821510343896326</v>
       </c>
       <c r="D6">
-        <v>-0.076568264124858509</v>
+        <v>-0.084244853405205031</v>
       </c>
       <c r="E6">
-        <v>0.28144010597245295</v>
+        <v>0.30965675846237517</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2178,16 +2190,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.48667792961862416</v>
+        <v>0.48552999051959733</v>
       </c>
       <c r="C7">
-        <v>0.51332207038137589</v>
+        <v>0.51447000948040267</v>
       </c>
       <c r="D7">
-        <v>0.066610351906879209</v>
+        <v>0.072350047402013229</v>
       </c>
       <c r="E7">
-        <v>0.33305175953439609</v>
+        <v>0.36175023701006626</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2198,16 +2210,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.38597850347824497</v>
+        <v>0.37717814534088473</v>
       </c>
       <c r="C8">
-        <v>0.61402149652175497</v>
+        <v>0.62282185465911533</v>
       </c>
       <c r="D8">
-        <v>0.18556439630011118</v>
+        <v>0.19988654777856024</v>
       </c>
       <c r="E8">
-        <v>0.3107644709122343</v>
+        <v>0.33474976073758894</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2218,16 +2230,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.24981945054520538</v>
+        <v>0.23284365595397141</v>
       </c>
       <c r="C9">
-        <v>0.75018054945479462</v>
+        <v>0.76715634404602862</v>
       </c>
       <c r="D9">
-        <v>0.22657861082698363</v>
+        <v>0.24195291536244096</v>
       </c>
       <c r="E9">
-        <v>0.26906210035704298</v>
+        <v>0.28731908699289865</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2238,16 +2250,16 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.13203487930201691</v>
+        <v>0.10682911207088305</v>
       </c>
       <c r="C10">
-        <v>0.86796512069798315</v>
+        <v>0.89317088792911692</v>
       </c>
       <c r="D10">
-        <v>0.14439137647642364</v>
+        <v>0.15428224716205854</v>
       </c>
       <c r="E10">
-        <v>0.16302252182822025</v>
+        <v>0.17418963389264672</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2258,16 +2270,16 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.10152719280915633</v>
+        <v>0.072269519168688248</v>
       </c>
       <c r="C11">
-        <v>0.89847280719084366</v>
+        <v>0.92773048083131182</v>
       </c>
       <c r="D11">
-        <v>0.013109242685408126</v>
+        <v>0.014071782505546145</v>
       </c>
       <c r="E11">
-        <v>0.013109242685408126</v>
+        <v>0.01407178250554615</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2278,16 +2290,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.16075635431549642</v>
+        <v>0.13494348095293196</v>
       </c>
       <c r="C12">
-        <v>0.8392436456845036</v>
+        <v>0.86505651904706815</v>
       </c>
       <c r="D12">
-        <v>-0.1263848876079523</v>
+        <v>-0.13600144827243718</v>
       </c>
       <c r="E12">
-        <v>-0.13081944506788046</v>
+        <v>-0.14077342891357525</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2298,16 +2310,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.28379312530290224</v>
+        <v>0.2677593158011819</v>
       </c>
       <c r="C13">
-        <v>0.71620687469709776</v>
+        <v>0.73224068419881805</v>
       </c>
       <c r="D13">
-        <v>-0.2001585293587565</v>
+        <v>-0.21500220042323587</v>
       </c>
       <c r="E13">
-        <v>-0.2630145486005932</v>
+        <v>-0.28251959521093339</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2318,16 +2330,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.40961838782472187</v>
+        <v>0.40318119836888699</v>
       </c>
       <c r="C14">
-        <v>0.59038161217527807</v>
+        <v>0.59681880163111301</v>
       </c>
       <c r="D14">
-        <v>-0.17624414374179231</v>
+        <v>-0.18879666318067032</v>
       </c>
       <c r="E14">
-        <v>-0.36039667854892138</v>
+        <v>-0.38606497150406294</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2338,16 +2350,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.49200595098335637</v>
+        <v>0.4914267660499988</v>
       </c>
       <c r="C15">
-        <v>0.50799404901664358</v>
+        <v>0.5085732339500012</v>
       </c>
       <c r="D15">
-        <v>-0.074230455154548056</v>
+        <v>-0.079608600964296866</v>
       </c>
       <c r="E15">
-        <v>-0.39730423612718868</v>
+        <v>-0.42608972731505951</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2358,16 +2370,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.4965708824293259</v>
+        <v>0.49630913868174054</v>
       </c>
       <c r="C16">
-        <v>0.50342911757067421</v>
+        <v>0.50369086131825946</v>
       </c>
       <c r="D16">
-        <v>0.069725390603707499</v>
+        <v>0.075047513471276403</v>
       </c>
       <c r="E16">
-        <v>-0.37731723669317796</v>
+        <v>-0.40611777371915314</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2378,16 +2390,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.40031923366363786</v>
+        <v>0.39279540234485361</v>
       </c>
       <c r="C17">
-        <v>0.59968076633636214</v>
+        <v>0.60720459765514645</v>
       </c>
       <c r="D17">
-        <v>0.20991596675539789</v>
+        <v>0.22576027035613186</v>
       </c>
       <c r="E17">
-        <v>-0.31076944798983486</v>
+        <v>-0.33422609857192703</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2398,16 +2410,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.25574808750297923</v>
+        <v>0.23736445833171974</v>
       </c>
       <c r="C18">
-        <v>0.74425191249702072</v>
+        <v>0.76263554166828029</v>
       </c>
       <c r="D18">
-        <v>0.22564224297343824</v>
+        <v>0.24262521468403037</v>
       </c>
       <c r="E18">
-        <v>-0.20214753519991535</v>
+        <v>-0.21736217686641479</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2418,16 +2430,16 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.13965122472019703</v>
+        <v>0.11301533109457979</v>
       </c>
       <c r="C19">
-        <v>0.86034877527980291</v>
+        <v>0.88698466890542027</v>
       </c>
       <c r="D19">
-        <v>0.14070761701401827</v>
+        <v>0.15110829928687838</v>
       </c>
       <c r="E19">
-        <v>-0.085797327447572125</v>
+        <v>-0.092139206882242905</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2438,16 +2450,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.10079131131269935</v>
+        <v>0.07155609870933459</v>
       </c>
       <c r="C20">
-        <v>0.89920868868730064</v>
+        <v>0.92844390129066545</v>
       </c>
       <c r="D20">
-        <v>0.01338886645025006</v>
+        <v>0.014369372056173186</v>
       </c>
       <c r="E20">
-        <v>0.020278506133054531</v>
+        <v>0.021763560078217697</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2465,28 +2477,28 @@
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="210" t="s">
+      <c r="C1" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="216" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2495,19 +2507,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00089676671932227634</v>
+        <v>0.00089677276171017226</v>
       </c>
       <c r="C2">
-        <v>0.99910323328067763</v>
+        <v>0.99910322723828981</v>
       </c>
       <c r="D2">
-        <v>0.029180247669395223</v>
+        <v>0.029180247316124865</v>
       </c>
       <c r="E2">
-        <v>0.0066689669215493517</v>
+        <v>0.0066689668408115741</v>
       </c>
       <c r="F2">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2515,16 +2527,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.040668651726818467</v>
+        <v>0.040668658770480426</v>
       </c>
       <c r="C3">
-        <v>0.95933134827318156</v>
+        <v>0.95933134122951957</v>
       </c>
       <c r="D3">
-        <v>-0.14283197720211027</v>
+        <v>-0.1428319750118392</v>
       </c>
       <c r="E3">
-        <v>0.13643217374295261</v>
+        <v>0.13643217165081992</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2535,19 +2547,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.17090402002223282</v>
+        <v>0.17090402426921306</v>
       </c>
       <c r="C4">
-        <v>0.82909597997776718</v>
+        <v>0.82909597573078686</v>
       </c>
       <c r="D4">
-        <v>-0.25922157285452557</v>
+        <v>-0.25922156950927389</v>
       </c>
       <c r="E4">
-        <v>0.27294690282516232</v>
+        <v>0.27294689930278537</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="5">
@@ -2555,16 +2567,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.34371835462297967</v>
+        <v>0.34806418523073124</v>
       </c>
       <c r="C5">
-        <v>0.65628164537702027</v>
+        <v>0.65193581476926876</v>
       </c>
       <c r="D5">
-        <v>-0.26268616988903415</v>
+        <v>-0.25538147588877091</v>
       </c>
       <c r="E5">
-        <v>0.39569182552905152</v>
+        <v>0.38468855228814858</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2575,16 +2587,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.47211085581160628</v>
+        <v>0.47377065911269922</v>
       </c>
       <c r="C6">
-        <v>0.52788914418839372</v>
+        <v>0.52622934088730078</v>
       </c>
       <c r="D6">
-        <v>-0.12898729187132085</v>
+        <v>-0.12131070160376604</v>
       </c>
       <c r="E6">
-        <v>0.47411545120269294</v>
+        <v>0.44589879508411306</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2595,16 +2607,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.48040345500928355</v>
+        <v>0.48040345517825322</v>
       </c>
       <c r="C7">
-        <v>0.51959654499071639</v>
+        <v>0.51959654482174678</v>
       </c>
       <c r="D7">
-        <v>0.097982724953581984</v>
+        <v>0.097982724108734015</v>
       </c>
       <c r="E7">
-        <v>0.48991362476790989</v>
+        <v>0.48991362054367005</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2615,16 +2627,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.34976849650837288</v>
+        <v>0.34976849813146094</v>
       </c>
       <c r="C8">
-        <v>0.65023150349162706</v>
+        <v>0.65023150186853917</v>
       </c>
       <c r="D8">
-        <v>0.24449440764323638</v>
+        <v>0.24449440500174008</v>
       </c>
       <c r="E8">
-        <v>0.40945448990855238</v>
+        <v>0.40945448548484176</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2635,16 +2647,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.21020506467540459</v>
+        <v>0.21020506941828182</v>
       </c>
       <c r="C9">
-        <v>0.78979493532459544</v>
+        <v>0.78979493058171824</v>
       </c>
       <c r="D9">
-        <v>0.2624557904826525</v>
+        <v>0.26245578618721649</v>
       </c>
       <c r="E9">
-        <v>0.31166625119814978</v>
+        <v>0.31166624609731969</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2655,16 +2667,16 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.069710649334816785</v>
+        <v>0.069710654517428999</v>
       </c>
       <c r="C10">
-        <v>0.93028935066518326</v>
+        <v>0.93028934548257103</v>
       </c>
       <c r="D10">
-        <v>0.16884771988127442</v>
+        <v>0.16884771784759112</v>
       </c>
       <c r="E10">
-        <v>0.19063452244660017</v>
+        <v>0.19063452015050605</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2675,19 +2687,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.00054028624821663904</v>
+        <v>0.00054029372602742434</v>
       </c>
       <c r="C11">
-        <v>0.99945971375178344</v>
+        <v>0.99945970627397251</v>
       </c>
       <c r="D11">
-        <v>0.016431581982508384</v>
+        <v>0.01643158173649803</v>
       </c>
       <c r="E11">
-        <v>0.016431581982508388</v>
+        <v>0.016431581736498026</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12">
@@ -2695,16 +2707,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.059346711704718863</v>
+        <v>0.059346717153754017</v>
       </c>
       <c r="C12">
-        <v>0.94065328829528116</v>
+        <v>0.94065328284624605</v>
       </c>
       <c r="D12">
-        <v>-0.16416495054137922</v>
+        <v>-0.16416494851134655</v>
       </c>
       <c r="E12">
-        <v>-0.1699251242445855</v>
+        <v>-0.16992512214332359</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2715,16 +2727,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.22628576457470415</v>
+        <v>0.22628576867371</v>
       </c>
       <c r="C13">
-        <v>0.77371423542529583</v>
+        <v>0.77371423132629003</v>
       </c>
       <c r="D13">
-        <v>-0.25339730248651104</v>
+        <v>-0.25339729869176125</v>
       </c>
       <c r="E13">
-        <v>-0.33297195649675171</v>
+        <v>-0.33297195151033215</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2735,16 +2747,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.39011030493754445</v>
+        <v>0.39011030661400564</v>
       </c>
       <c r="C14">
-        <v>0.60988969506245561</v>
+        <v>0.60988969338599441</v>
       </c>
       <c r="D14">
-        <v>-0.2142849053717884</v>
+        <v>-0.21428490210268886</v>
       </c>
       <c r="E14">
-        <v>-0.4381851590615416</v>
+        <v>-0.43818515237665245</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2755,16 +2767,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.49011269493389203</v>
+        <v>0.49011269506833838</v>
       </c>
       <c r="C15">
-        <v>0.50988730506610802</v>
+        <v>0.50988730493166157</v>
       </c>
       <c r="D15">
-        <v>-0.09181068989957393</v>
+        <v>-0.091810688651143474</v>
       </c>
       <c r="E15">
-        <v>-0.49139906178556575</v>
+        <v>-0.49139905510358184</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2775,16 +2787,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.49553175489295392</v>
+        <v>0.49553175495423174</v>
       </c>
       <c r="C16">
-        <v>0.50446824510704602</v>
+        <v>0.50446824504576837</v>
       </c>
       <c r="D16">
-        <v>0.090854317176603958</v>
+        <v>0.090854315930621682</v>
       </c>
       <c r="E16">
-        <v>-0.49165590327863884</v>
+        <v>-0.49165589653603625</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2795,16 +2807,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.3715601710901893</v>
+        <v>0.37156017254968077</v>
       </c>
       <c r="C17">
-        <v>0.62843982890981065</v>
+        <v>0.62843982745031923</v>
       </c>
       <c r="D17">
-        <v>0.27047916911595432</v>
+        <v>0.27047916604243688</v>
       </c>
       <c r="E17">
-        <v>-0.40043005483646854</v>
+        <v>-0.40043005028628914</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2815,19 +2827,19 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.18617183744907592</v>
+        <v>0.18617184302598069</v>
       </c>
       <c r="C18">
-        <v>0.81382816255092405</v>
+        <v>0.81382815697401922</v>
       </c>
       <c r="D18">
-        <v>0.28991744540418707</v>
+        <v>0.2899174402521893</v>
       </c>
       <c r="E18">
-        <v>-0.25973016500643148</v>
+        <v>-0.25973016039087887</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="19">
@@ -2835,16 +2847,16 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.045296875283623209</v>
+        <v>0.045296880998849612</v>
       </c>
       <c r="C19">
-        <v>0.95470312471637686</v>
+        <v>0.95470311900115046</v>
       </c>
       <c r="D19">
-        <v>0.17755074393687093</v>
+        <v>0.17755074170521112</v>
       </c>
       <c r="E19">
-        <v>-0.10826264874199448</v>
+        <v>-0.10826264738122628</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2855,16 +2867,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.00092372004511617582</v>
+        <v>0.00092372631942095956</v>
       </c>
       <c r="C20">
-        <v>0.99907627995488379</v>
+        <v>0.99907627368057905</v>
       </c>
       <c r="D20">
-        <v>0.01673827712211344</v>
+        <v>0.016738276911682577</v>
       </c>
       <c r="E20">
-        <v>0.025351455744127196</v>
+        <v>0.025351455425412867</v>
       </c>
       <c r="F20">
         <v>1</v>
